--- a/直播源.xlsx
+++ b/直播源.xlsx
@@ -10,13 +10,14 @@
     <sheet name="直播源" sheetId="1" r:id="rId1"/>
     <sheet name="需要的频道" sheetId="3" r:id="rId2"/>
     <sheet name="直播源搜索" sheetId="2" r:id="rId3"/>
+    <sheet name="电子节目单" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
   <si>
     <t>m3u</t>
   </si>
@@ -136,58 +137,58 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Guovin/iptv-api/gd/output/result.m3u</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/alantang1977/iptv_api/refs/heads/main/output/live_ipv4.m3u</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>直播源地址</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>特殊处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>频道名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>频道别名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV1|CCTV-1|CCTV1综合|CCTV-1综合</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV2|CCTV-2|CCTV2财经|CCTV-2财经</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV3|CCTV-3|CCTV3综艺|CCTV-3综艺</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>频道组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>央视频道</t>
   </si>
   <si>
     <t>频道排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV4|CCTV-4|CCTV4中文国际|CCTV-4中文国际</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV-1</t>
@@ -245,59 +246,59 @@
   </si>
   <si>
     <t>CCTV5|CCTV-5|CCTV5体育|CCTV-5体育</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV5+|CCTV-5+|CCTV5+体育赛事|CCTV-5+体育赛事|CCTV5PLUS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV6|CCTV-6|CCTV6电影|CCTV-6电影</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV7|CCTV-7|CCTV7国防军事|CCTV-7国防军事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV8|CCTV-8|CCTV8电视剧|CCTV-8电视剧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV9|CCTV-9|CCTV9纪录|CCTV-9纪录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV10|CCTV-10|CCTV10科教|CCTV-10科教</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV11|CCTV-11|CCTV11戏曲|CCTV-11戏曲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV12|CCTV-12|CCTV12社会与法|CCTV-12社会与法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV13|CCTV-13|CCTV13新闻|CCTV-13新闻</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV14|CCTV-14|CCTV14少儿|CCTV-14少儿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV15|CCTV-15|CCTV15音乐|CCTV-15音乐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV16|CCTV-16|CCTV16奥林匹克|CCTV-16奥林匹克</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CCTV17|CCTV-17|CCTV17农业农村|CCTV-17农业农村</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CHC动作电影</t>
@@ -307,7 +308,7 @@
   </si>
   <si>
     <t>CHC高清电影</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CHC影迷电影</t>
@@ -488,55 +489,84 @@
   </si>
   <si>
     <t>频道组排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中国教育1台|CETV-1|CETV1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中国教育2台|CETV-2|CETV2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中国教育3台|CETV-3|CETV3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>中国教育4台|CETV-4|CETV4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>湖南金鹰卡通|金鹰卡通</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>北京卡酷少儿|卡酷少儿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>广东嘉佳卡通|嘉佳卡通</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>$</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/alantang1977/iptv_api/refs/heads/main/output/live_ipv6.m3u</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>$</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://gitee.com/dream-deve/migu_video/raw/main/interface.txt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>txt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/suxuang/myIPTV/refs/heads/main/%E7%A7%BB%E5%8A%A8%E4%B8%93%E4%BA%AB.txt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京纪实科教</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京纪实科教|纪实科教</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/suxuang/myIPTV/refs/heads/main/ipv4.m3u</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://epg.51zmt.top:8000/e.xml</t>
+  </si>
+  <si>
+    <t>https://live.kilvn.com/epg.xml</t>
+  </si>
+  <si>
+    <t>https://epg.pw/xmltv/epg.xml</t>
   </si>
 </sst>
 </file>
@@ -546,13 +576,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0."/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -595,6 +632,35 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -647,36 +713,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,495 +1052,511 @@
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.125" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="20" style="9" customWidth="1"/>
-    <col min="4" max="26" width="20" customWidth="1"/>
+    <col min="1" max="1" width="86.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20" style="10" customWidth="1"/>
+    <col min="4" max="26" width="20" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="B35" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="B39" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -1505,6 +1600,8 @@
     <hyperlink ref="A38" r:id="rId37"/>
     <hyperlink ref="A39" r:id="rId38"/>
     <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -1517,1346 +1614,1362 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" customWidth="1"/>
-    <col min="2" max="2" width="47" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20" style="5" customWidth="1"/>
-    <col min="4" max="5" width="20" style="6" customWidth="1"/>
-    <col min="6" max="26" width="20" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="13" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" customWidth="1"/>
+    <col min="4" max="5" width="20" style="4" customWidth="1"/>
+    <col min="6" max="26" width="20" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="6">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="C29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="6">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="6">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="6">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="C33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="6">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="C34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="6">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="C35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="6">
-        <v>3</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="C36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="C37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="C38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="6">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6">
+      <c r="C39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="6">
-        <v>3</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="C40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="6">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6">
+      <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="6">
-        <v>3</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="C42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="6">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="C43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="6">
-        <v>3</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="C44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="6">
-        <v>3</v>
-      </c>
-      <c r="E45" s="6">
+      <c r="C45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="6">
-        <v>3</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="C46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="6">
-        <v>3</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="6">
-        <v>3</v>
-      </c>
-      <c r="E48" s="6">
+      <c r="C48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="6">
-        <v>3</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="C49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="6">
-        <v>3</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="C50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="6">
-        <v>3</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="C51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
+      <c r="E51" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="6">
-        <v>3</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="C52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="6">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="C53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
+      <c r="E53" s="4">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="6">
-        <v>3</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="C54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3</v>
+      </c>
+      <c r="E54" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="6">
-        <v>3</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="C55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="6">
-        <v>3</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="C56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="6">
-        <v>3</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="C57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="6">
-        <v>3</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="C58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="6">
-        <v>3</v>
-      </c>
-      <c r="E59" s="6">
+      <c r="C59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="6">
-        <v>3</v>
-      </c>
-      <c r="E60" s="6">
+      <c r="C60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="4">
+        <v>3</v>
+      </c>
+      <c r="E60" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="6">
-        <v>3</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="C61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="E61" s="4">
         <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="6">
-        <v>3</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="C62" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="4">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="6">
-        <v>3</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="C63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="6">
-        <v>3</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="6">
-        <v>3</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="C65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="6">
-        <v>3</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="C66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4">
         <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="6">
-        <v>3</v>
-      </c>
-      <c r="E67" s="6">
+      <c r="C67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3</v>
+      </c>
+      <c r="E67" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>4</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>4</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>4</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>4</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>4</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>4</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>4</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="4">
         <v>4</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>4</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>4</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>4</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="4">
+        <v>4</v>
+      </c>
+      <c r="E79" s="4">
+        <v>12</v>
+      </c>
+    </row>
     <row r="80" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2980,7 +3093,7 @@
     <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -3207,11 +3320,52 @@
     <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.75" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="29.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/直播源.xlsx
+++ b/直播源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="直播源" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="169">
   <si>
     <t>m3u</t>
   </si>
@@ -137,58 +137,58 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Guovin/iptv-api/gd/output/result.m3u</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/alantang1977/iptv_api/refs/heads/main/output/live_ipv4.m3u</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>直播源地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特殊处理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>频道名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>频道别名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV1|CCTV-1|CCTV1综合|CCTV-1综合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV2|CCTV-2|CCTV2财经|CCTV-2财经</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV3|CCTV-3|CCTV3综艺|CCTV-3综艺</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>频道组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>央视频道</t>
   </si>
   <si>
     <t>频道排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV4|CCTV-4|CCTV4中文国际|CCTV-4中文国际</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV-1</t>
@@ -246,59 +246,59 @@
   </si>
   <si>
     <t>CCTV5|CCTV-5|CCTV5体育|CCTV-5体育</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV5+|CCTV-5+|CCTV5+体育赛事|CCTV-5+体育赛事|CCTV5PLUS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV6|CCTV-6|CCTV6电影|CCTV-6电影</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV7|CCTV-7|CCTV7国防军事|CCTV-7国防军事</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV8|CCTV-8|CCTV8电视剧|CCTV-8电视剧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV9|CCTV-9|CCTV9纪录|CCTV-9纪录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV10|CCTV-10|CCTV10科教|CCTV-10科教</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV11|CCTV-11|CCTV11戏曲|CCTV-11戏曲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV12|CCTV-12|CCTV12社会与法|CCTV-12社会与法</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV13|CCTV-13|CCTV13新闻|CCTV-13新闻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV14|CCTV-14|CCTV14少儿|CCTV-14少儿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV15|CCTV-15|CCTV15音乐|CCTV-15音乐</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV16|CCTV-16|CCTV16奥林匹克|CCTV-16奥林匹克</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CCTV17|CCTV-17|CCTV17农业农村|CCTV-17农业农村</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CHC动作电影</t>
@@ -308,7 +308,7 @@
   </si>
   <si>
     <t>CHC高清电影</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CHC影迷电影</t>
@@ -489,75 +489,75 @@
   </si>
   <si>
     <t>频道组排序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国教育1台|CETV-1|CETV1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国教育2台|CETV-2|CETV2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国教育3台|CETV-3|CETV3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中国教育4台|CETV-4|CETV4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>湖南金鹰卡通|金鹰卡通</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>北京卡酷少儿|卡酷少儿</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>广东嘉佳卡通|嘉佳卡通</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/alantang1977/iptv_api/refs/heads/main/output/live_ipv6.m3u</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>$</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://gitee.com/dream-deve/migu_video/raw/main/interface.txt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>txt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/suxuang/myIPTV/refs/heads/main/%E7%A7%BB%E5%8A%A8%E4%B8%93%E4%BA%AB.txt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>北京纪实科教</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>北京纪实科教|纪实科教</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/suxuang/myIPTV/refs/heads/main/ipv4.m3u</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>http://epg.51zmt.top:8000/e.xml</t>
@@ -567,6 +567,10 @@
   </si>
   <si>
     <t>https://epg.pw/xmltv/epg.xml</t>
+  </si>
+  <si>
+    <t>https://tv.mxdyeah.top/epgphp/index.php</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,13 +580,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0."/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -713,50 +724,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1051,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1556,7 +1568,7 @@
     <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -3093,7 +3105,7 @@
     <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -3320,7 +3332,7 @@
     <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
@@ -3331,17 +3343,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="52.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.75" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="29.5" style="6"/>
+    <col min="1" max="16384" width="52.125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -3350,22 +3361,27 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="17" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>